--- a/approach2_exp/results/jdk_2.xlsx
+++ b/approach2_exp/results/jdk_2.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate's work on two projects demonstrates their strong skills in ReactJS, Django, Python, JavaScript, web design, user experience, web page optimization, and brand consistency. Their score of 78.95 reflects their aptness for the job as Frontend Engineer Intern.</t>
+          <t xml:space="preserve"> The candidate has demonstrated an excellent understanding of the required skills, including ReactJS, JavaScript, CSS, Frontend Development, and NextJS, through two projects that demonstrate the candidate's abilities in web design, user experience, web page optimization, and brand consistency. The score of 78.95 accurately reflects the candidate's aptitude for the job.</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate has demonstrated mastery of the required skills for the job, with projects that include ReactJS, JavaScript, CSS, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, JS, Docker, Flutter, Dart, and Firebase. Their score reflects their high aptitude for the job and their ability to use the necessary skills.</t>
+          <t xml:space="preserve"> The candidate has the necessary skills and experience to succeed in the job role, having worked on projects involving ReactJS, JavaScript, CSS, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, JS, Docker, Flutter, Dart, and Firebase. This range of experience, along with the high score of 82.56, make the candidate an ideal candidate for the Frontend Engineer Intern role.</t>
         </is>
       </c>
     </row>
@@ -494,8 +494,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The candidate's projects demonstrate an excellent proficiency in the skills required for the job. They have used ReactJS, JavaScript, CSS, Frontend Development, NextJS, Pytorch, Tensorflow, Keras, Django Rest Framework, and Sklearn in their projects. The candidate's skill set matches the job description and their projects show an in-depth understanding of the technologies required, thus earning them a score of 79.14.</t>
+          <t xml:space="preserve"> The candidate has excellent skills in web design, user experience, web page optimization, and brand consistency, as well as strong communication and interpersonal skills. Additionally, they have relevant experience in ReactJS, JavaScript, CSS, Frontend Development, NextJS, PyTorch, Tensorflow, Keras, Django Rest Framework, Python, and Sklearn, which makes them a suitable candidate for the position.</t>
         </is>
       </c>
     </row>

--- a/approach2_exp/results/jdk_2.xlsx
+++ b/approach2_exp/results/jdk_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>project_count</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>reason</t>
         </is>
       </c>
@@ -458,11 +463,15 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>78.95</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The candidate has demonstrated an excellent understanding of the required skills, including ReactJS, JavaScript, CSS, Frontend Development, and NextJS, through two projects that demonstrate the candidate's abilities in web design, user experience, web page optimization, and brand consistency. The score of 78.95 accurately reflects the candidate's aptitude for the job.</t>
+        <v>76.95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Reasoning: The candidate has demonstrated strong technical skills in the relevant technologies - ReactJS, JavaScript, CSS, Frontend Development, and NextJS - and has also successfully applied them in two projects. The candidate's skillset is a great fit for the job description and thus merits a score of 76.95.</t>
         </is>
       </c>
     </row>
@@ -474,11 +483,15 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>82.56</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The candidate has the necessary skills and experience to succeed in the job role, having worked on projects involving ReactJS, JavaScript, CSS, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, JS, Docker, Flutter, Dart, and Firebase. This range of experience, along with the high score of 82.56, make the candidate an ideal candidate for the Frontend Engineer Intern role.</t>
+        <v>81.31999999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Reasoning: The candidate's projects demonstrate a solid understanding of the skills required for the job such as ReactJS, JavaScript, CSS, Frontend Development, NextJS, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, JS, Docker, Flutter, Dart, and Firebase. The projects also show a high level of proficiency in web design, user experience, web page optimization, and brand consistency, as well as communication and interpersonal skills. This is why the candidate has been given a score of 81.32.</t>
         </is>
       </c>
     </row>
@@ -490,11 +503,15 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>79.14</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The candidate has excellent skills in web design, user experience, web page optimization, and brand consistency, as well as strong communication and interpersonal skills. Additionally, they have relevant experience in ReactJS, JavaScript, CSS, Frontend Development, NextJS, PyTorch, Tensorflow, Keras, Django Rest Framework, Python, and Sklearn, which makes them a suitable candidate for the position.</t>
+        <v>77.79000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Reasoning: The candidate has demonstrated a strong understanding of the required skills (ReactJS, JavaScript, CSS, Frontend Development, NextJS) through their projects. The candidate has also used other technologies such as Pytorch, Tensorflow, Keras, Django Rest Framework, Python, and Sklearn to develop their projects, which shows their willingness to learn and adapt to new technologies. This, combined with their communication and interpersonal skills, makes them a suitable candidate for the Frontend Engineer Intern role.</t>
         </is>
       </c>
     </row>

--- a/approach2_exp/results/jdk_2.xlsx
+++ b/approach2_exp/results/jdk_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,18 +460,18 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>78.53</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>76.95</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.95</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Reasoning: The candidate has demonstrated strong technical skills in the relevant technologies - ReactJS, JavaScript, CSS, Frontend Development, and NextJS - and has also successfully applied them in two projects. The candidate's skillset is a great fit for the job description and thus merits a score of 76.95.</t>
+Reasoning: The candidate's projects demonstrate a strong knowledge of the skills required for the job, such as ReactJS, HTML, CSS, Flutter, Dart, Firebase, NodeJS, ExpressJS, Socket.IO, WebRTC, JS, and Docker. The projects also show a solid understanding of web development, user experience, and brand consistency. The score of 78.53 reflects the candidate's aptitude for the job.</t>
         </is>
       </c>
     </row>
@@ -480,10 +480,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>81.31999999999999</v>
+        <v>76.81</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -491,27 +491,7 @@
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Reasoning: The candidate's projects demonstrate a solid understanding of the skills required for the job such as ReactJS, JavaScript, CSS, Frontend Development, NextJS, NodeJS, ExpressJS, Socket.IO, WebRTC, HTML, CSS, JS, Docker, Flutter, Dart, and Firebase. The projects also show a high level of proficiency in web design, user experience, web page optimization, and brand consistency, as well as communication and interpersonal skills. This is why the candidate has been given a score of 81.32.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>77.79000000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Reasoning: The candidate has demonstrated a strong understanding of the required skills (ReactJS, JavaScript, CSS, Frontend Development, NextJS) through their projects. The candidate has also used other technologies such as Pytorch, Tensorflow, Keras, Django Rest Framework, Python, and Sklearn to develop their projects, which shows their willingness to learn and adapt to new technologies. This, combined with their communication and interpersonal skills, makes them a suitable candidate for the Frontend Engineer Intern role.</t>
+Reasoning: The candidate has a strong set of relevant skills and experience for the job, including ReactJS, JavaScript, CSS, Frontend Development, NextJS, Django Rest Framework, Pytorch, Tensorflow, Keras, and Sklearn. The candidate's projects demonstrate a sound understanding of the technologies used, and show a good level of creativity and problem solving. The score of 76.81 reflects the candidate's aptitude for the job.</t>
         </is>
       </c>
     </row>

--- a/approach2_exp/results/jdk_2.xlsx
+++ b/approach2_exp/results/jdk_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,64 +434,61 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>final_score</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>final_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>project_count</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>reason</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>78.53</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>73.48999999999999</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Reasoning: The candidate's projects demonstrate a strong knowledge of the skills required for the job, such as ReactJS, HTML, CSS, Flutter, Dart, Firebase, NodeJS, ExpressJS, Socket.IO, WebRTC, JS, and Docker. The projects also show a solid understanding of web development, user experience, and brand consistency. The score of 78.53 reflects the candidate's aptitude for the job.</t>
+Reasoning: The candidate has worked on projects related to web design, user experience, optimization, ReactJS, Django, Python, JavaScript, Computer Vision, and Image Processing. They have demonstrated strong technical skills in the domain of frontend engineering. This, coupled with their experience in the field, earns them a score of 73.49.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Reasoning: The candidate has demonstrated strong skills in Frontend Development by working on projects that utilize ReactJS, JavaScript, CSS, NextJS, HTML, Flutter, Dart, Firebase, NodeJS, ExpressJS, Socket.IO, WebRTC, Docker. This, coupled with the job description, makes the candidate a good fit for the Frontend Engineer Intern position and thus justifies the score of 83.2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>76.81</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="B4" t="n">
+        <v>77.34999999999999</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Reasoning: The candidate has a strong set of relevant skills and experience for the job, including ReactJS, JavaScript, CSS, Frontend Development, NextJS, Django Rest Framework, Pytorch, Tensorflow, Keras, and Sklearn. The candidate's projects demonstrate a sound understanding of the technologies used, and show a good level of creativity and problem solving. The score of 76.81 reflects the candidate's aptitude for the job.</t>
+Reasoning: The candidate has strong skills in the required technologies for the job (ReactJS, JavaScript, CSS, Frontend Development, NextJS) as demonstrated by their projects that also include other relevant technologies such as Pytorch, Tensorflow, Keras, Django Rest Framework, and Sklearn. This demonstrates the applicant's ability to work on complex projects with various technologies and provides a strong basis to grant the score of 77.35.</t>
         </is>
       </c>
     </row>
